--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3122963.208266704</v>
+        <v>3119945.617865767</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.51588468092768</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>14.94037681563424</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.8167699816754</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>149.3098822773976</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>97.63667898840905</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>65.60109857576272</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>129.0246247964032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.15991756125196</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>253.3698956889402</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.3342580788932</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>43.95972835281619</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>194.0270836661629</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896908</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274107</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>94.16481274941174</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.690939990542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.0041688483403</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>212.3678138822626</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883384993</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>92.34501372154307</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>22.39936339804649</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>241.076306400173</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>160.7559740462481</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>241.2076248290339</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.82331221239856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>170.652233005812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.3479015531201</v>
+        <v>113.4060353162359</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,22 +3029,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3089,13 +3089,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.34995075181416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>242.6788799221821</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.88203396751766</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>106.430044137413</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>61.32489541078397</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>200.6498907613226</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>124.5842797810746</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>47.73764944014957</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>73.63564309577595</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>133.0602430035533</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.7879015331887</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>927.7879015331887</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.057801305461</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2505.880313619631</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2287.245646591693</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2033.483861229785</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1702.420973886214</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2398.184369545944</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>2170.876182214546</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.344242153657</v>
+        <v>935.7408973472316</v>
       </c>
       <c r="C5" t="n">
-        <v>903.3817252132453</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>545.1160266064949</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>478.852290671381</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473039</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.483574129469</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.483574129469</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.344242153657</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551152</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036443</v>
+        <v>528.604248231895</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036443</v>
+        <v>528.604248231895</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>438.955373861002</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551152</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551152</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551152</v>
+        <v>697.5404311598019</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551152</v>
+        <v>697.5404311598019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1061.976198199964</v>
       </c>
       <c r="E8" t="n">
         <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520777</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.723949158869</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888755</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627675</v>
+        <v>1838.715370239898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.6468506995</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692483</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673413</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036329</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204931</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615915</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572633</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315294</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942398</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942398</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942398</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,22 +5060,22 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845915</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641085</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344391</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>420.3226148324565</v>
       </c>
       <c r="X13" t="n">
-        <v>326.6213191924212</v>
+        <v>192.3330639344391</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>192.3330639344391</v>
       </c>
     </row>
     <row r="14">
@@ -5255,61 +5255,61 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K15" t="n">
-        <v>2525.058920465858</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M15" t="n">
-        <v>3446.276123502708</v>
+        <v>857.5427825698964</v>
       </c>
       <c r="N15" t="n">
-        <v>3888.6054163749</v>
+        <v>1661.954360834047</v>
       </c>
       <c r="O15" t="n">
-        <v>4558.069177677559</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706985</v>
+        <v>199.2415044384073</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247849</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>709.451253618898</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.403327242486</v>
+        <v>420.0340835819374</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.413776344468</v>
+        <v>420.0340835819374</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.6211972009382</v>
+        <v>199.2415044384073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5504,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823796</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L18" t="n">
-        <v>3138.955990222747</v>
+        <v>624.8682044203595</v>
       </c>
       <c r="M18" t="n">
-        <v>3446.276123502708</v>
+        <v>932.1883377003207</v>
       </c>
       <c r="N18" t="n">
-        <v>3776.138751166741</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.0436439308535</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C19" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1405.638478919979</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1116.509840133537</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="W19" t="n">
-        <v>708.6921087610932</v>
+        <v>861.8253519276506</v>
       </c>
       <c r="X19" t="n">
-        <v>708.6921087610932</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.6921087610932</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823783</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690731</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409604</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748353</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742897</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769782</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805655</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098439</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>2540.738589021622</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>2787.503716928086</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>3094.823850208048</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>3899.235428472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.721670557067</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098065</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021843</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.92892764123</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409487</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681286</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475753</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710799</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4054.493082861371</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C22" t="n">
-        <v>4054.493082861371</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D22" t="n">
-        <v>3904.376443449035</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866642</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>4282.482633759388</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X22" t="n">
-        <v>4054.493082861371</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y22" t="n">
-        <v>4054.493082861371</v>
+        <v>1025.541385271393</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.738453580939</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2520.760934363149</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>542.438140992646</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6254,22 +6254,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>857.5427825698952</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
         <v>1661.954360834046</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4015.911034827087</v>
+        <v>3617.986260256746</v>
       </c>
       <c r="C28" t="n">
-        <v>4015.911034827087</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="D28" t="n">
-        <v>4015.911034827087</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244694</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
         <v>3570.689985294727</v>
@@ -6412,22 +6412,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.069157803799</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W28" t="n">
-        <v>4464.693164868635</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X28" t="n">
-        <v>4236.703613970618</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y28" t="n">
-        <v>4015.911034827087</v>
+        <v>3799.634725086986</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3733.682529471918</v>
+        <v>4150.724813749354</v>
       </c>
       <c r="C31" t="n">
-        <v>3607.06848749907</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.06848749907</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.149147719352</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.149147719352</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V31" t="n">
-        <v>4182.464659513465</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W31" t="n">
-        <v>4182.464659513465</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="X31" t="n">
-        <v>3954.475108615448</v>
+        <v>4371.517392892884</v>
       </c>
       <c r="Y31" t="n">
-        <v>3733.682529471918</v>
+        <v>4150.724813749354</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665167</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1966.019627967826</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>303.1196361220957</v>
+        <v>3943.156846022673</v>
       </c>
       <c r="C34" t="n">
-        <v>303.1196361220957</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="D34" t="n">
-        <v>303.1196361220957</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="E34" t="n">
-        <v>303.1196361220957</v>
+        <v>3774.220663094766</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>4391.938976064221</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>4391.938976064221</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>4391.938976064221</v>
       </c>
       <c r="X34" t="n">
-        <v>303.1196361220957</v>
+        <v>4163.949425166204</v>
       </c>
       <c r="Y34" t="n">
-        <v>303.1196361220957</v>
+        <v>3943.156846022673</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>1841.189502980821</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4011.58016949761</v>
+        <v>4089.051895123946</v>
       </c>
       <c r="C37" t="n">
-        <v>4011.58016949761</v>
+        <v>3920.11571219604</v>
       </c>
       <c r="D37" t="n">
-        <v>3861.463530085274</v>
+        <v>3769.999072783704</v>
       </c>
       <c r="E37" t="n">
-        <v>3713.550436502881</v>
+        <v>3622.085979201311</v>
       </c>
       <c r="F37" t="n">
-        <v>3566.660489004971</v>
+        <v>3622.085979201311</v>
       </c>
       <c r="G37" t="n">
-        <v>3566.660489004971</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H37" t="n">
-        <v>3566.660489004971</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916675</v>
@@ -7117,28 +7117,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576118</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.362299539157</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="X37" t="n">
-        <v>4232.37274864114</v>
+        <v>4089.051895123946</v>
       </c>
       <c r="Y37" t="n">
-        <v>4011.58016949761</v>
+        <v>4089.051895123946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1321.461721072713</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P39" t="n">
         <v>2525.810590821615</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.3337308726216</v>
+        <v>3988.367017677803</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>3819.430834749896</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3757.486495951125</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V40" t="n">
-        <v>898.7925182488384</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="W40" t="n">
-        <v>696.115860914169</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="X40" t="n">
-        <v>468.1263100161517</v>
+        <v>4209.159596821333</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.3337308726216</v>
+        <v>3988.367017677803</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,25 +7433,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>3262.052667528205</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>3569.372800808167</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4166.003522936597</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C43" t="n">
-        <v>3997.06734000869</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D43" t="n">
-        <v>3846.950700596354</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E43" t="n">
-        <v>3846.950700596354</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>3846.950700596354</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014291</v>
+        <v>1339.621319200385</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803797</v>
+        <v>1115.835903989891</v>
       </c>
       <c r="U43" t="n">
-        <v>4637.069157803797</v>
+        <v>826.707265203449</v>
       </c>
       <c r="V43" t="n">
-        <v>4637.069157803797</v>
+        <v>826.707265203449</v>
       </c>
       <c r="W43" t="n">
-        <v>4347.651987766836</v>
+        <v>537.2900951664884</v>
       </c>
       <c r="X43" t="n">
-        <v>4347.651987766836</v>
+        <v>537.2900951664884</v>
       </c>
       <c r="Y43" t="n">
-        <v>4347.651987766836</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>550.2226492899335</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>857.5427825698952</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>712.8170085027681</v>
+        <v>3907.801489902814</v>
       </c>
       <c r="C46" t="n">
-        <v>712.8170085027681</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123425</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W46" t="n">
-        <v>940.8065594007854</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X46" t="n">
-        <v>712.8170085027681</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y46" t="n">
-        <v>712.8170085027681</v>
+        <v>3982.180927373294</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360596</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451768</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>15.83804904623059</v>
       </c>
       <c r="N15" t="n">
-        <v>113.6026921294535</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.096615172075</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302289</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231154</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,16 +9480,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622781</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>219.9778004203346</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.83804904622824</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>234.4116509503167</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>159.0121003135241</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.7176547498452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>93.88676507992579</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>18.73797368291383</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367934</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298108</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>73.0820083492161</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>101.8937133615528</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>66.24265225028756</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.15518445432838</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.2025473368462</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>264.1236349385445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>45.44669193641803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>57.82867930584669</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10.93001849479413</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.4235088862293</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.8707653307791</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.89891954550777</v>
+        <v>53.84078578239192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>108.0710972711171</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>43.55847247639525</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>115.6115344958599</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>3.989201326858947</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,19 +25366,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.29057760742839</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>85.87310757526836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.90928868230301</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>150.1831605434537</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>106.1963370861613</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>153.4627553330377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737661.636445625</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380331</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672191</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672198</v>
@@ -26341,19 +26341,19 @@
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.9485672199</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672192</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143917</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143923</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151827.2408816759</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
-        <v>438140.6383328685</v>
+        <v>437725.4238234011</v>
       </c>
       <c r="D6" t="n">
-        <v>438140.6383328687</v>
+        <v>437725.4238234012</v>
       </c>
       <c r="E6" t="n">
-        <v>13339.08548729728</v>
+        <v>13004.91652016749</v>
       </c>
       <c r="F6" t="n">
-        <v>538499.1219641936</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="G6" t="n">
-        <v>538499.1219641932</v>
+        <v>538164.9529970636</v>
       </c>
       <c r="H6" t="n">
-        <v>538499.1219641935</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="I6" t="n">
-        <v>538499.1219641933</v>
+        <v>538164.9529970639</v>
       </c>
       <c r="J6" t="n">
-        <v>362075.9027716008</v>
+        <v>361741.7338044712</v>
       </c>
       <c r="K6" t="n">
-        <v>538499.1219641933</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="L6" t="n">
-        <v>538499.1219641935</v>
+        <v>538164.9529970636</v>
       </c>
       <c r="M6" t="n">
-        <v>403698.1067303562</v>
+        <v>403363.9377632266</v>
       </c>
       <c r="N6" t="n">
-        <v>538499.1219641936</v>
+        <v>538164.9529970642</v>
       </c>
       <c r="O6" t="n">
-        <v>538499.1219641931</v>
+        <v>538164.9529970638</v>
       </c>
       <c r="P6" t="n">
-        <v>538499.1219641931</v>
+        <v>538164.9529970639</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>292.1671569397553</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.53802575917747</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.61719266489378</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>62.83565667262127</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>267.6362127825985</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>316.3292714964991</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.2221963022246</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>285.363080775339</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>128.5604743833216</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.9036805771603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>102.474234293753</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042811</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,13 +34784,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839198</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355135</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.9101789549066</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>334.861035854162</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507399</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>326.2624260966966</v>
       </c>
       <c r="N15" t="n">
-        <v>446.7972655274663</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415089</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>340.4953046390469</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634167</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>530.4021774708009</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
@@ -36221,7 +36221,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.8510818313024</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36680,10 +36680,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>544.836028000783</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,10 +37163,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>366.1055152450488</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>404.3111421303921</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>353.8818559928177</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3119945.617865767</v>
+        <v>3195475.287530573</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8643724.351692524</v>
+        <v>8643724.351692522</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>15.14483238681418</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.94037681563424</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.8167699816754</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.63667898840905</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +952,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>170.1853824187916</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>62.65245435790923</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15991756125196</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>253.3698956889402</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>276.5855197167256</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.0270836661629</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>163.4435927426899</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896908</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274107</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>94.16481274941174</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.0041688483403</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.95471363499057</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883384993</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1938,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>92.34501372154307</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>213.8889536739945</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.7559740462481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>241.2076248290339</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.82331221239856</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4060353162359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.0903281190975</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>242.6788799221821</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>50.88203396751766</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>61.32489541078397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>174.7430637258771</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>136.9550221642687</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>47.73764944014957</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.63564309577595</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>4.757585443084571</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>487.2046004139091</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>69.24079231209595</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>69.24079231209595</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2682.057801305461</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2505.880313619631</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.245646591693</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.483861229785</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,10 +4418,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791649</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791649</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>935.7408973472316</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.806495672433</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1322.340737411353</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1322.340737411353</v>
+        <v>1018.106519274536</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.5404311598019</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C7" t="n">
-        <v>528.604248231895</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>664.8436767742029</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>664.8436767742029</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="W7" t="n">
-        <v>697.5404311598019</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="X7" t="n">
-        <v>697.5404311598019</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="Y7" t="n">
-        <v>697.5404311598019</v>
+        <v>437.5354894428046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.976198199964</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C8" t="n">
-        <v>1061.976198199964</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="D8" t="n">
-        <v>1061.976198199964</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>904.7520787722653</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>486.7882706704522</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4837,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239898</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4892,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845915</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641085</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.3330639344391</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247851</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383433</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324565</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324565</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3330639344391</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.3330639344391</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341668</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698964</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834047</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>199.2415044384073</v>
+        <v>734.3105644220441</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>734.3105644220441</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>734.3105644220441</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028581</v>
+        <v>586.397470839651</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>439.5075233417406</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>271.3322016615612</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247849</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247849</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>709.451253618898</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819374</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0340835819374</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.2415044384073</v>
+        <v>734.3105644220441</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823796</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203595</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003207</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557901</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1405.638478919979</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1116.509840133537</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>861.8253519276506</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>861.8253519276506</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>633.8358010296332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5737,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690731</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409604</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748353</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742897</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769782</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805655</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098439</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2540.738589021622</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>2787.503716928086</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3094.823850208048</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.235428472198</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557067</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098065</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021843</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.92892764123</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409487</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681286</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475753</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710799</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.8929204411535</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>674.9567375132466</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8400981009108</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383383</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1282.866822402352</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1282.866822402352</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>1028.182334196465</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.92115703528</v>
+        <v>1028.182334196465</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.92115703528</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.541385271393</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="23">
@@ -5984,34 +5986,34 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231263</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6181,16 +6183,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>542.438140992646</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>542.438140992646</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,31 +6214,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3617.986260256746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4027.624275985003</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3799.634725086986</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4150.724813749354</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>4036.173262924874</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>4036.173262924874</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924874</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929845</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V31" t="n">
-        <v>4660.934562929845</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.517392892884</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X31" t="n">
-        <v>4371.517392892884</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y31" t="n">
-        <v>4150.724813749354</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3943.156846022673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4391.938976064221</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>4391.938976064221</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>4391.938976064221</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>4163.949425166204</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3943.156846022673</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6941,7 +6943,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6962,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7020,13 +7022,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O36" t="n">
         <v>2016.139981183168</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4089.051895123946</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>3920.11571219604</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>3769.999072783704</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>3622.085979201311</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3622.085979201311</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1481.609330619229</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W37" t="n">
-        <v>4317.041446021964</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X37" t="n">
-        <v>4089.051895123946</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y37" t="n">
-        <v>4089.051895123946</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2302.237516093321</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3988.367017677803</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>3819.430834749896</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>3757.486495951125</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1322.408125380249</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.14914771935</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V40" t="n">
-        <v>4437.14914771935</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W40" t="n">
-        <v>4437.14914771935</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X40" t="n">
-        <v>4209.159596821333</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>3988.367017677803</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7390,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7402,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3262.052667528205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.6416303362487</v>
+        <v>4205.10944585278</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362487</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1339.621319200385</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>1115.835903989891</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>826.707265203449</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V43" t="n">
-        <v>826.707265203449</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W43" t="n">
-        <v>537.2900951664884</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X43" t="n">
-        <v>537.2900951664884</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2900951664884</v>
+        <v>4343.447852079315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3907.801489902814</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="C46" t="n">
-        <v>3738.865306974907</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="D46" t="n">
-        <v>3738.865306974907</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="E46" t="n">
-        <v>3738.865306974907</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974907</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I46" t="n">
         <v>3459.155393916675</v>
@@ -7828,28 +7830,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U46" t="n">
-        <v>4236.865415579181</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V46" t="n">
-        <v>3982.180927373294</v>
+        <v>4432.343505857649</v>
       </c>
       <c r="W46" t="n">
-        <v>3982.180927373294</v>
+        <v>4142.926335820688</v>
       </c>
       <c r="X46" t="n">
-        <v>3982.180927373294</v>
+        <v>4142.926335820688</v>
       </c>
       <c r="Y46" t="n">
-        <v>3982.180927373294</v>
+        <v>3922.133756677158</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>38.86002301949878</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>15.83804904623059</v>
+        <v>38.86002301949827</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172075</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302289</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>52.49733361305204</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599021</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>15.83804904622781</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M30" t="n">
-        <v>234.4116509503167</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>91.23759968302096</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>18.73797368291383</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>104.6241510367934</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>73.0820083492161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>66.24265225028756</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>86.95911473254556</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>129.2025473368462</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>7.658607384394799</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.82867930584669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10.93001849479413</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.4235088862293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.84078578239192</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>116.4572329392918</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,16 +25128,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>43.55847247639525</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115.6115344958599</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>92.8304818645059</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>87.29057760742839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>42.87695801766858</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>150.1831605434537</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.1963370861613</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>247.3800578807434</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456246</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672195</v>
@@ -26332,28 +26334,28 @@
         <v>645197.9485672194</v>
       </c>
       <c r="I2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,28 +26426,28 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143923</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.66962143908</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26457,7 +26459,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911432</v>
+        <v>-152242.455391143</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.4238234011</v>
+        <v>437725.4238234013</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234012</v>
+        <v>437725.4238234016</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016749</v>
+        <v>13004.91652016758</v>
       </c>
       <c r="F6" t="n">
+        <v>538164.9529970639</v>
+      </c>
+      <c r="G6" t="n">
         <v>538164.9529970638</v>
-      </c>
-      <c r="G6" t="n">
-        <v>538164.9529970636</v>
       </c>
       <c r="H6" t="n">
         <v>538164.9529970638</v>
       </c>
       <c r="I6" t="n">
+        <v>538164.9529970638</v>
+      </c>
+      <c r="J6" t="n">
+        <v>361741.733804471</v>
+      </c>
+      <c r="K6" t="n">
+        <v>538164.9529970635</v>
+      </c>
+      <c r="L6" t="n">
         <v>538164.9529970639</v>
       </c>
-      <c r="J6" t="n">
-        <v>361741.7338044712</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>403363.9377632265</v>
+      </c>
+      <c r="N6" t="n">
         <v>538164.9529970638</v>
       </c>
-      <c r="L6" t="n">
-        <v>538164.9529970636</v>
-      </c>
-      <c r="M6" t="n">
-        <v>403363.9377632266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>538164.9529970642</v>
-      </c>
       <c r="O6" t="n">
-        <v>538164.9529970638</v>
+        <v>538164.952997064</v>
       </c>
       <c r="P6" t="n">
-        <v>538164.9529970639</v>
+        <v>538164.9529970641</v>
       </c>
     </row>
   </sheetData>
@@ -26741,22 +26743,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.7864838580471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.53802575917747</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.61719266489378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>267.6362127825985</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>216.052556237262</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>84.01273762224861</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>285.363080775339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>128.5604743833216</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>47.33725304763152</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>92.49591467042811</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>62.26606264634722</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304437</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565515</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304437</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565515</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361485</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35015,13 +35017,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594832</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.861035854162</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507399</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.257704956024</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>326.2624260966966</v>
+        <v>349.2844000699646</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178374</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507396</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415089</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303327</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390469</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.424377050466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415661</v>
+        <v>385.691907011065</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507396</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>166.413487634167</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M30" t="n">
-        <v>544.836028000783</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36929,7 +36931,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>373.6013019241291</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37549,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>225.8313886144385</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>353.8818559928177</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37871,13 +37873,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195475.287530573</v>
+        <v>3188458.272638862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>140.9971593390836</v>
       </c>
       <c r="I2" t="n">
-        <v>15.14483238681418</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>147.3596012393432</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>310.2076895021003</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>170.1853824187916</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>62.65245435790923</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H8" t="n">
-        <v>276.5855197167256</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>163.4435927426899</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.6451640076508</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>61.95471363499057</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>213.8889536739945</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>114.3307653357158</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789691</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0903281190975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.13387053928689</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>174.7430637258771</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>79.35117756627976</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.9550221642687</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>7.654562703509278</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>4.757585443084571</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C2" t="n">
-        <v>494.1501011631125</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D2" t="n">
-        <v>494.1501011631125</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="E2" t="n">
-        <v>494.1501011631125</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="F2" t="n">
-        <v>487.2046004139091</v>
+        <v>210.287758951555</v>
       </c>
       <c r="G2" t="n">
-        <v>69.24079231209595</v>
+        <v>196.3643548901459</v>
       </c>
       <c r="H2" t="n">
-        <v>69.24079231209595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4400,28 +4400,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>367.2840823275365</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437.5354894428046</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>664.8436767742029</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>664.8436767742029</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>437.5354894428046</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>437.5354894428046</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>437.5354894428046</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W7" t="n">
-        <v>437.5354894428046</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X7" t="n">
-        <v>437.5354894428046</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="Y7" t="n">
-        <v>437.5354894428046</v>
+        <v>154.8539665087374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561873</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>1315.737983561873</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D8" t="n">
-        <v>1315.737983561873</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E8" t="n">
-        <v>1315.737983561873</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F8" t="n">
-        <v>904.7520787722653</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G8" t="n">
-        <v>486.7882706704522</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
         <v>348.7460229006679</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,7 +5065,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>551.5142687221453</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>401.3976293098095</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,10 +5293,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,13 +5305,13 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845922</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.3105644220441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>734.3105644220441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>734.3105644220441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>586.397470839651</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>439.5075233417406</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>271.3322016615612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655742</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>955.1031435655742</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.3105644220441</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5597,13 +5597,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845922</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5673,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,13 +5691,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1382.222354598087</v>
@@ -5743,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,25 +5767,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1282.866822402352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1282.866822402352</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1028.182334196465</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1028.182334196465</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>800.1927832984481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>360.6158065939071</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>212.702713011514</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>212.702713011514</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6417,13 +6417,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>638.3691419079764</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>271.7560809816245</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1281.689320534781</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.689320534781</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.689320534781</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.689320534781</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231263</v>
@@ -6742,7 +6742,7 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1346.676219880508</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1481.609330619229</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1281.689320534781</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T37" t="n">
-        <v>1281.689320534781</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U37" t="n">
-        <v>1281.689320534781</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V37" t="n">
-        <v>1281.689320534781</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W37" t="n">
-        <v>1281.689320534781</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.689320534781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1322.408125380249</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1098.622710169755</v>
+        <v>1218.843555861051</v>
       </c>
       <c r="U40" t="n">
-        <v>809.4940713833126</v>
+        <v>929.7149170746092</v>
       </c>
       <c r="V40" t="n">
-        <v>554.8095831774258</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="W40" t="n">
-        <v>265.3924131404652</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X40" t="n">
-        <v>265.3924131404652</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y40" t="n">
-        <v>265.3924131404652</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,34 +7402,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4205.10944585278</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C43" t="n">
-        <v>4036.173262924874</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D43" t="n">
-        <v>4036.173262924874</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>4860.854573014292</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>4571.437402977332</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>4343.447852079315</v>
+        <v>947.0827307963585</v>
       </c>
       <c r="Y43" t="n">
-        <v>4343.447852079315</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4437.14914771935</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>4432.343505857649</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>4142.926335820688</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>4142.926335820688</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
-        <v>38.86002301949827</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>52.49733361305204</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599021</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>104.8749102765748</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>11.78879863891834</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>86.95911473254556</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>7.658607384394799</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>52.16280312766175</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>83.04669386107801</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>116.4572329392918</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>92.8304818645059</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>142.1963834921095</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.87695801766858</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>218.0550926855279</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>247.3800578807434</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="14">
@@ -26319,43 +26319,43 @@
         <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26447,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26487,10 +26487,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>437725.4238234013</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234016</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016758</v>
+        <v>12030.32526044614</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.361737342</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373419</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373423</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.733804471</v>
+        <v>360767.1425447494</v>
       </c>
       <c r="K6" t="n">
-        <v>538164.9529970635</v>
+        <v>537190.3617373422</v>
       </c>
       <c r="L6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.361737342</v>
       </c>
       <c r="M6" t="n">
-        <v>403363.9377632265</v>
+        <v>402389.3465035051</v>
       </c>
       <c r="N6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373423</v>
       </c>
       <c r="O6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.3617373423</v>
       </c>
       <c r="P6" t="n">
-        <v>538164.9529970641</v>
+        <v>537190.361737342</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>182.9256134252736</v>
       </c>
       <c r="I2" t="n">
-        <v>136.7864838580471</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>32.47237894259408</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>13.71508326225683</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>216.052556237262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>35.06374695084897</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.01273762224861</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H8" t="n">
-        <v>47.33725304763152</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>62.26606264634722</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>349.2844000699646</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>385.691907011065</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>354.1326152325991</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>610.8663700188198</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3188458.272638862</v>
+        <v>3193397.535487894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8643724.351692522</v>
+        <v>8643724.351692524</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9971593390836</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>89.00389277357181</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.3596012393432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>23.59206496516762</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>332.1317943015997</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>310.2076895021003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72.43998417784756</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>355.546756558266</v>
+        <v>355.5467565582673</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498019</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>17.93359706704316</v>
       </c>
       <c r="E13" t="n">
-        <v>134.6451640076508</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>177.4671311412372</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>23.30984749387354</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.3307653357158</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>140.5737657081063</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.964516789691</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274199</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.9032618964207</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>27.37255160319397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>137.9838098727425</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.4653217847137</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>79.35117756627976</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>7.654562703509278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.4614752479206</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>575.4989583075089</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>217.2332597007584</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>217.2332597007584</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>210.287758951555</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>196.3643548901459</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2552.217479555209</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2298.4556941933</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1967.39280684973</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1614.624151579615</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>674.8816964083719</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978291</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037879</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>1193.181703431129</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785532</v>
+        <v>807.3934508328844</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>367.2840823275365</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042412</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.8539665087374</v>
+        <v>444.0275768541702</v>
       </c>
       <c r="C7" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>154.8539665087374</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>154.8539665087374</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>154.8539665087374</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>154.8539665087374</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8539665087374</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477913</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658214</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502506</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594909</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064351</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>698.7120650600571</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087374</v>
+        <v>444.0275768541702</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087374</v>
+        <v>444.0275768541702</v>
       </c>
       <c r="X7" t="n">
-        <v>154.8539665087374</v>
+        <v>444.0275768541702</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.8539665087374</v>
+        <v>444.0275768541702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.083492693021</v>
+        <v>1937.083492693022</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.120975752609</v>
+        <v>1568.120975752611</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.855277145859</v>
+        <v>1209.85527714586</v>
       </c>
       <c r="E8" t="n">
-        <v>824.0670245476144</v>
+        <v>824.0670245476158</v>
       </c>
       <c r="F8" t="n">
-        <v>413.0811197580069</v>
+        <v>413.0811197580082</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757144</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757144</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.060406649891</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5029,46 +5029,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.4504516500522</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="C13" t="n">
-        <v>551.5142687221453</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="D13" t="n">
-        <v>401.3976293098095</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500522</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>720.4504516500522</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.4504516500522</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5293,25 +5293,25 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>816.3222213695508</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>595.5296422260207</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,16 +5530,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
@@ -5548,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
@@ -5785,7 +5785,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.7324460062429</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>510.7324460062429</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>360.6158065939071</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>212.702713011514</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>212.702713011514</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X25" t="n">
-        <v>692.3809108364826</v>
+        <v>557.8041243279829</v>
       </c>
       <c r="Y25" t="n">
-        <v>692.3809108364826</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805482</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822475</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>545.4651278373171</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094103</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>226.4123054970745</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675569</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675569</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>738.7219969042602</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C31" t="n">
-        <v>569.7858139763533</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>419.6691745640176</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>271.7560809816245</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.3704617344999</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,34 +6916,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.597763704656</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>545.9992215018333</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1218.843555861051</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>929.7149170746092</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0304288687223</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0304288687223</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>947.0827307963585</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.2901516528284</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747064</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270186</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951775</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>277.671796620807</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>130.6818759511692</v>
       </c>
       <c r="E13" t="n">
-        <v>11.78879863891834</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>2.364849040700136</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>228.8277958299545</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>52.16280312766175</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>78.01088764398847</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>18.53070075014844</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>83.04669386107801</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>148.5391884638485</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>14.45548819888955</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>142.1963834921095</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>218.0550926855279</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456246</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="I2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.092476549179992e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.455391143</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
         <v>437725.4238234013</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234014</v>
+        <v>437725.4238234015</v>
       </c>
       <c r="E6" t="n">
-        <v>12030.32526044614</v>
+        <v>12907.45739419553</v>
       </c>
       <c r="F6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="G6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="H6" t="n">
-        <v>537190.3617373419</v>
+        <v>538067.4938710919</v>
       </c>
       <c r="I6" t="n">
-        <v>537190.3617373423</v>
+        <v>538067.4938710919</v>
       </c>
       <c r="J6" t="n">
-        <v>360767.1425447494</v>
+        <v>361644.2746784987</v>
       </c>
       <c r="K6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="L6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="M6" t="n">
-        <v>402389.3465035051</v>
+        <v>403266.4786372544</v>
       </c>
       <c r="N6" t="n">
-        <v>537190.3617373423</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="O6" t="n">
-        <v>537190.3617373423</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="P6" t="n">
-        <v>537190.361737342</v>
+        <v>538067.4938710916</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,28 +26792,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9256134252736</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>127.444427584086</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.47237894259408</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.4430404929167</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>74.74425144011178</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13.71508326225683</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>94.80683692078027</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>35.06374695084897</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>58.23741346252899</v>
+        <v>58.23741346252768</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768313</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>610.8663700188198</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
